--- a/DWAVRPAProject/Data/Config.xlsx
+++ b/DWAVRPAProject/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\DWAVRPAProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +159,68 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/</t>
+  </si>
+  <si>
+    <t>SARAM_IN URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <r>
+      <t>C:\RPA\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용공고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>\Result</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용공고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_Result_Folder</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,6 +243,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +284,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,19 +595,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +665,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,8 +677,25 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1616,19 +1694,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1743,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1868,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2779,19 +2857,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/DWAVRPAProject/Data/Config.xlsx
+++ b/DWAVRPAProject/Data/Config.xlsx
@@ -164,37 +164,6 @@
     <t>https://www.saramin.co.kr/zf_user/</t>
   </si>
   <si>
-    <t>SARAM_IN URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <r>
-      <t>C:\RPA\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채용공고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>\Result</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -213,6 +182,38 @@
       </rPr>
       <t>_Result_Folder</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SARAM_IN_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C:\RPA\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람인채용공고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>\Result</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SARAM_IN_Result</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -599,7 +600,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -679,7 +680,7 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -687,13 +688,13 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/DWAVRPAProject/Data/Config.xlsx
+++ b/DWAVRPAProject/Data/Config.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Email" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -162,6 +163,74 @@
   </si>
   <si>
     <t>https://www.saramin.co.kr/zf_user/</t>
+  </si>
+  <si>
+    <t>https://www.jobplanet.co.kr/welcome/index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SARAM_IN_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jobplanet_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>받는사람</t>
+  </si>
+  <si>
+    <t>Cc</t>
+  </si>
+  <si>
+    <t>참조자</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>보내는사람</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>jisu229@naver.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu229@naver.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1_Account</t>
+  </si>
+  <si>
+    <t>Window Credential Manager System1_Account</t>
+  </si>
+  <si>
+    <t>Email_Account</t>
+  </si>
+  <si>
+    <t>Window Credential Manager Email_Account</t>
+  </si>
+  <si>
+    <t>System1_Account</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -172,25 +241,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>채용공고</t>
+      <t>금일</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t>_Result_Folder</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SARAM_IN_URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>C:\RPA\</t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -200,7 +260,20 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사람인채용공고</t>
+      <t>채용정보</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
     </r>
     <r>
       <rPr>
@@ -208,20 +281,90 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>\Result</t>
+      <t xml:space="preserve">.
+</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SARAM_IN_Result</t>
-    <phoneticPr fontId="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과물을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내드립니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -252,13 +395,32 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,10 +432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -283,9 +446,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -612,13 +779,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
@@ -678,31 +845,51 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1689,8 +1876,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1699,7 +1889,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1711,13 +1901,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
@@ -2862,7 +3052,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3912,4 +4102,93 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/DWAVRPAProject/Data/Config.xlsx
+++ b/DWAVRPAProject/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVRPA\DWAVRPA\DWAVRPAProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F583B-CDA4-4148-8B43-B9D9422A452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="0" windowWidth="15885" windowHeight="11850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,50 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>KakaoLogin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Credential</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KakaoChanUrl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KakaoURL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">카톡채널 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,6 +225,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -223,7 +266,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,16 +580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +647,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1623,12 +1666,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1708,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1833,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2780,21 +2823,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:XFD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26 16384:16384" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2830,21 +2873,42 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26 16384:16384" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26 16384:16384" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="XFD3" s="2"/>
+    </row>
+    <row r="4" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26 16384:16384" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -3832,5 +3896,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>